--- a/artfynd/A 17913-2019.xlsx
+++ b/artfynd/A 17913-2019.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>86851042</v>
+        <v>105312389</v>
       </c>
       <c r="B2" t="n">
-        <v>96251</v>
+        <v>78503</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,37 +696,37 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>219790</v>
+        <v>6456</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(L.) Soó</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Längs E4 mellan Kongberget och Gnarp, Hls</t>
+          <t>Storrönningen, Hls</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>615689.084506036</v>
+        <v>616060.6447056353</v>
       </c>
       <c r="R2" t="n">
-        <v>6862637.86594828</v>
+        <v>6863194.20718522</v>
       </c>
       <c r="S2" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2018-06-27</t>
+          <t>2022-06-03</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2018-06-27</t>
+          <t>2022-06-03</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -777,25 +777,30 @@
       <c r="AG2" t="b">
         <v>0</v>
       </c>
+      <c r="AS2" t="inlineStr">
+        <is>
+          <t>Henrik Tykosson</t>
+        </is>
+      </c>
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Sofia Lundman</t>
+          <t>Helene Andersson</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Sofia Lundman, Oskar Wallströmer</t>
+          <t>Henrik Tykosson</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>105312389</v>
+        <v>86851042</v>
       </c>
       <c r="B3" t="n">
-        <v>78503</v>
+        <v>96251</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -808,37 +813,37 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6456</v>
+        <v>219790</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Dactylorhiza maculata</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(L.) Soó</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Storrönningen, Hls</t>
+          <t>Längs E4 mellan Kongberget och Gnarp, Hls</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>616060.6447056353</v>
+        <v>615689.084506036</v>
       </c>
       <c r="R3" t="n">
-        <v>6863194.20718522</v>
+        <v>6862637.86594828</v>
       </c>
       <c r="S3" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -862,7 +867,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2022-06-03</t>
+          <t>2018-06-27</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -872,7 +877,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2022-06-03</t>
+          <t>2018-06-27</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -889,20 +894,15 @@
       <c r="AG3" t="b">
         <v>0</v>
       </c>
-      <c r="AS3" t="inlineStr">
-        <is>
-          <t>Henrik Tykosson</t>
-        </is>
-      </c>
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>Helene Andersson</t>
+          <t>Sofia Lundman</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>Henrik Tykosson</t>
+          <t>Sofia Lundman, Oskar Wallströmer</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr"/>

--- a/artfynd/A 17913-2019.xlsx
+++ b/artfynd/A 17913-2019.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>105312389</v>
+        <v>86851042</v>
       </c>
       <c r="B2" t="n">
-        <v>78503</v>
+        <v>96251</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,37 +696,37 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6456</v>
+        <v>219790</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Dactylorhiza maculata</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(L.) Soó</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Storrönningen, Hls</t>
+          <t>Längs E4 mellan Kongberget och Gnarp, Hls</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>616060.6447056353</v>
+        <v>615689.084506036</v>
       </c>
       <c r="R2" t="n">
-        <v>6863194.20718522</v>
+        <v>6862637.86594828</v>
       </c>
       <c r="S2" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2022-06-03</t>
+          <t>2018-06-27</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2022-06-03</t>
+          <t>2018-06-27</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -777,30 +777,25 @@
       <c r="AG2" t="b">
         <v>0</v>
       </c>
-      <c r="AS2" t="inlineStr">
-        <is>
-          <t>Henrik Tykosson</t>
-        </is>
-      </c>
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Helene Andersson</t>
+          <t>Sofia Lundman</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Henrik Tykosson</t>
+          <t>Sofia Lundman, Oskar Wallströmer</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>86851042</v>
+        <v>105312389</v>
       </c>
       <c r="B3" t="n">
-        <v>96251</v>
+        <v>78503</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -813,37 +808,37 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>219790</v>
+        <v>6456</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(L.) Soó</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Längs E4 mellan Kongberget och Gnarp, Hls</t>
+          <t>Storrönningen, Hls</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>615689.084506036</v>
+        <v>616060.6447056353</v>
       </c>
       <c r="R3" t="n">
-        <v>6862637.86594828</v>
+        <v>6863194.20718522</v>
       </c>
       <c r="S3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -867,7 +862,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2018-06-27</t>
+          <t>2022-06-03</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -877,7 +872,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2018-06-27</t>
+          <t>2022-06-03</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -894,15 +889,20 @@
       <c r="AG3" t="b">
         <v>0</v>
       </c>
+      <c r="AS3" t="inlineStr">
+        <is>
+          <t>Henrik Tykosson</t>
+        </is>
+      </c>
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>Sofia Lundman</t>
+          <t>Helene Andersson</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>Sofia Lundman, Oskar Wallströmer</t>
+          <t>Henrik Tykosson</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr"/>
